--- a/files/separadas/repeat_p38.xlsx
+++ b/files/separadas/repeat_p38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="218">
   <si>
     <t>p38_cod</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://aplicaciones.metrodebogota.gov.co/</t>
@@ -1054,13 +1042,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,31 +1094,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1139,39 +1115,27 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>220</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1180,39 +1144,27 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>220</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1221,39 +1173,27 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J4" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>220</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1262,39 +1202,27 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J5" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>220</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1303,39 +1231,27 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J6" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>220</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1344,39 +1260,27 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J7" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1385,39 +1289,27 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J8" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M8" t="s">
-        <v>220</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1426,39 +1318,27 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J9" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>220</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1467,39 +1347,27 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J10" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M10" t="s">
-        <v>220</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1508,39 +1376,27 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J11" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M11" t="s">
-        <v>220</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -1549,39 +1405,27 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J12" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>220</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1590,39 +1434,27 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J13" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M13" t="s">
-        <v>220</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -1631,39 +1463,27 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J14" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M14" t="s">
-        <v>220</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1672,39 +1492,27 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J15" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M15" t="s">
-        <v>220</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1713,39 +1521,27 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J16" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>220</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -1754,39 +1550,27 @@
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J17" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M17" t="s">
-        <v>220</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G18">
         <v>13</v>
@@ -1795,39 +1579,27 @@
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J18" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M18" t="s">
-        <v>221</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1836,39 +1608,27 @@
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J19" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M19" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -1877,39 +1637,27 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J20" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M20" t="s">
-        <v>221</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -1918,39 +1666,27 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J21" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M21" t="s">
-        <v>220</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -1959,39 +1695,27 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J22" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M22" t="s">
-        <v>220</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -2000,39 +1724,27 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J23" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M23" t="s">
-        <v>221</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G24">
         <v>16</v>
@@ -2041,39 +1753,27 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J24" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M24" t="s">
-        <v>220</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -2082,39 +1782,27 @@
         <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J25" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M25" t="s">
-        <v>220</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G26">
         <v>18</v>
@@ -2123,39 +1811,27 @@
         <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J26" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M26" t="s">
-        <v>220</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -2164,39 +1840,27 @@
         <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J27" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M27" t="s">
-        <v>220</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G28">
         <v>21</v>
@@ -2205,39 +1869,27 @@
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J28" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M28" t="s">
-        <v>220</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G29">
         <v>22</v>
@@ -2246,39 +1898,27 @@
         <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J29" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M29" t="s">
-        <v>220</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2287,39 +1927,27 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>220</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -2328,39 +1956,27 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>220</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -2369,39 +1985,27 @@
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M32" t="s">
-        <v>220</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -2410,39 +2014,27 @@
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M33" t="s">
-        <v>220</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G34">
         <v>23</v>
@@ -2451,39 +2043,27 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M34" t="s">
-        <v>220</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G35">
         <v>23</v>
@@ -2492,39 +2072,27 @@
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M35" t="s">
-        <v>220</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G36">
         <v>23</v>
@@ -2533,39 +2101,27 @@
         <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J36" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M36" t="s">
-        <v>220</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G37">
         <v>24</v>
@@ -2574,39 +2130,27 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J37" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M37" t="s">
-        <v>221</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G38">
         <v>24</v>
@@ -2615,39 +2159,27 @@
         <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J38" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M38" t="s">
-        <v>221</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G39">
         <v>24</v>
@@ -2656,39 +2188,27 @@
         <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J39" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M39" t="s">
-        <v>221</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G40">
         <v>26</v>
@@ -2697,39 +2217,27 @@
         <v>55</v>
       </c>
       <c r="I40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J40" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M40" t="s">
-        <v>220</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -2738,39 +2246,27 @@
         <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J41" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M41" t="s">
-        <v>220</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G42">
         <v>27</v>
@@ -2779,39 +2275,27 @@
         <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J42" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M42" t="s">
-        <v>220</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G43">
         <v>27</v>
@@ -2820,39 +2304,27 @@
         <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J43" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M43" t="s">
-        <v>220</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G44">
         <v>27</v>
@@ -2861,39 +2333,27 @@
         <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J44" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M44" t="s">
-        <v>220</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G45">
         <v>28</v>
@@ -2902,39 +2362,27 @@
         <v>57</v>
       </c>
       <c r="I45" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J45" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M45" t="s">
-        <v>220</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G46">
         <v>29</v>
@@ -2943,39 +2391,27 @@
         <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J46" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M46" t="s">
-        <v>220</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -2984,39 +2420,27 @@
         <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J47" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M47" t="s">
-        <v>220</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G48">
         <v>31</v>
@@ -3025,39 +2449,27 @@
         <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J48" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M48" t="s">
-        <v>220</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G49">
         <v>32</v>
@@ -3066,39 +2478,27 @@
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J49" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M49" t="s">
-        <v>220</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G50">
         <v>32</v>
@@ -3107,39 +2507,27 @@
         <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J50" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M50" t="s">
-        <v>220</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G51">
         <v>33</v>
@@ -3148,39 +2536,27 @@
         <v>63</v>
       </c>
       <c r="I51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J51" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M51" t="s">
-        <v>220</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G52">
         <v>33</v>
@@ -3189,39 +2565,27 @@
         <v>63</v>
       </c>
       <c r="I52" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J52" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M52" t="s">
-        <v>220</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G53">
         <v>34</v>
@@ -3230,39 +2594,27 @@
         <v>64</v>
       </c>
       <c r="I53" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J53" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M53" t="s">
-        <v>220</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G54">
         <v>35</v>
@@ -3271,39 +2623,27 @@
         <v>75</v>
       </c>
       <c r="I54" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J54" s="3">
         <v>45040.58966435185</v>
       </c>
       <c r="M54" t="s">
-        <v>220</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G55">
         <v>37</v>
@@ -3312,39 +2652,27 @@
         <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J55" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M55" t="s">
-        <v>220</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G56">
         <v>38</v>
@@ -3353,39 +2681,27 @@
         <v>80</v>
       </c>
       <c r="I56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J56" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M56" t="s">
-        <v>220</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G57">
         <v>39</v>
@@ -3394,39 +2710,27 @@
         <v>81</v>
       </c>
       <c r="I57" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J57" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M57" t="s">
-        <v>220</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G58">
         <v>41</v>
@@ -3435,39 +2739,27 @@
         <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J58" s="3">
         <v>45042.86403935185</v>
       </c>
       <c r="M58" t="s">
-        <v>220</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G59">
         <v>42</v>
@@ -3476,39 +2768,27 @@
         <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J59" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M59" t="s">
-        <v>220</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G60">
         <v>44</v>
@@ -3517,39 +2797,27 @@
         <v>87</v>
       </c>
       <c r="I60" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J60" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M60" t="s">
-        <v>220</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -3558,39 +2826,27 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>221</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G62">
         <v>46</v>
@@ -3599,39 +2855,27 @@
         <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M62" t="s">
-        <v>220</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -3640,39 +2884,27 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>220</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G64">
         <v>48</v>
@@ -3681,39 +2913,27 @@
         <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J64" s="3">
         <v>45044.00171296296</v>
       </c>
       <c r="M64" t="s">
-        <v>220</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G65">
         <v>49</v>
@@ -3722,39 +2942,27 @@
         <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M65" t="s">
-        <v>220</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -3763,39 +2971,27 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>220</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -3804,39 +3000,27 @@
         <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M67" t="s">
-        <v>220</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -3845,39 +3029,27 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M68" t="s">
-        <v>220</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G69">
         <v>50</v>
@@ -3886,39 +3058,27 @@
         <v>94</v>
       </c>
       <c r="I69" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J69" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M69" t="s">
-        <v>220</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G70">
         <v>51</v>
@@ -3927,39 +3087,27 @@
         <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J70" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M70" t="s">
-        <v>220</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G71">
         <v>54</v>
@@ -3968,39 +3116,27 @@
         <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M71" t="s">
-        <v>220</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G72">
         <v>56</v>
@@ -4009,39 +3145,27 @@
         <v>101</v>
       </c>
       <c r="I72" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J72" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M72" t="s">
-        <v>220</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G73">
         <v>57</v>
@@ -4050,39 +3174,27 @@
         <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J73" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M73" t="s">
-        <v>220</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G74">
         <v>57</v>
@@ -4091,39 +3203,27 @@
         <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J74" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M74" t="s">
-        <v>220</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G75">
         <v>59</v>
@@ -4132,39 +3232,27 @@
         <v>104</v>
       </c>
       <c r="I75" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J75" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M75" t="s">
-        <v>220</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G76">
         <v>60</v>
@@ -4173,39 +3261,27 @@
         <v>105</v>
       </c>
       <c r="I76" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J76" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M76" t="s">
-        <v>220</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G77">
         <v>61</v>
@@ -4214,39 +3290,27 @@
         <v>106</v>
       </c>
       <c r="I77" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J77" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M77" t="s">
-        <v>220</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G78">
         <v>65</v>
@@ -4255,39 +3319,27 @@
         <v>111</v>
       </c>
       <c r="I78" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J78" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M78" t="s">
-        <v>220</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G79">
         <v>65</v>
@@ -4296,39 +3348,27 @@
         <v>111</v>
       </c>
       <c r="I79" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J79" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M79" t="s">
-        <v>220</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G80">
         <v>65</v>
@@ -4337,39 +3377,27 @@
         <v>111</v>
       </c>
       <c r="I80" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J80" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M80" t="s">
-        <v>220</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G81">
         <v>66</v>
@@ -4378,39 +3406,27 @@
         <v>113</v>
       </c>
       <c r="I81" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J81" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M81" t="s">
-        <v>220</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G82">
         <v>68</v>
@@ -4419,39 +3435,27 @@
         <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M82" t="s">
-        <v>221</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G83">
         <v>69</v>
@@ -4460,39 +3464,27 @@
         <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J83" s="3">
         <v>45048.78865740741</v>
       </c>
       <c r="M83" t="s">
-        <v>220</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G84">
         <v>71</v>
@@ -4501,39 +3493,27 @@
         <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M84" t="s">
-        <v>220</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G85">
         <v>71</v>
@@ -4542,25 +3522,13 @@
         <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J85" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M85" t="s">
-        <v>220</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p38.xlsx
+++ b/files/separadas/repeat_p38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="219">
   <si>
     <t>p38_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://aplicaciones.metrodebogota.gov.co/</t>
@@ -1042,13 +1045,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,19 +1097,22 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1115,27 +1121,30 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1144,27 +1153,30 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1173,27 +1185,30 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J4" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1202,27 +1217,30 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J5" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1231,27 +1249,30 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J6" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1260,27 +1281,30 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J7" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1289,27 +1313,30 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J8" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1318,27 +1345,30 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J9" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1347,27 +1377,30 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J10" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1376,27 +1409,30 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J11" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -1405,27 +1441,30 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J12" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1434,27 +1473,30 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J13" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -1463,27 +1505,30 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J14" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1492,27 +1537,30 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J15" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>217</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1521,27 +1569,30 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J16" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -1550,27 +1601,30 @@
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J17" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G18">
         <v>13</v>
@@ -1579,27 +1633,30 @@
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J18" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1608,27 +1665,30 @@
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J19" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -1637,27 +1697,30 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J20" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -1666,27 +1729,30 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J21" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -1695,27 +1761,30 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J22" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -1724,27 +1793,30 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J23" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24">
         <v>16</v>
@@ -1753,27 +1825,30 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J24" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -1782,27 +1857,30 @@
         <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J25" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G26">
         <v>18</v>
@@ -1811,27 +1889,30 @@
         <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J26" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -1840,27 +1921,30 @@
         <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J27" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G28">
         <v>21</v>
@@ -1869,27 +1953,30 @@
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J28" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G29">
         <v>22</v>
@@ -1898,27 +1985,30 @@
         <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J29" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -1927,27 +2017,30 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -1956,27 +2049,30 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -1985,27 +2081,30 @@
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -2014,27 +2113,30 @@
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G34">
         <v>23</v>
@@ -2043,27 +2145,30 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G35">
         <v>23</v>
@@ -2072,27 +2177,30 @@
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G36">
         <v>23</v>
@@ -2101,27 +2209,30 @@
         <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J36" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G37">
         <v>24</v>
@@ -2130,27 +2241,30 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J37" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G38">
         <v>24</v>
@@ -2159,27 +2273,30 @@
         <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J38" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M38" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G39">
         <v>24</v>
@@ -2188,27 +2305,30 @@
         <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J39" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G40">
         <v>26</v>
@@ -2217,27 +2337,30 @@
         <v>55</v>
       </c>
       <c r="I40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J40" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -2246,27 +2369,30 @@
         <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J41" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M41" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G42">
         <v>27</v>
@@ -2275,27 +2401,30 @@
         <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J42" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G43">
         <v>27</v>
@@ -2304,27 +2433,30 @@
         <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J43" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M43" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G44">
         <v>27</v>
@@ -2333,27 +2465,30 @@
         <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J44" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G45">
         <v>28</v>
@@ -2362,27 +2497,30 @@
         <v>57</v>
       </c>
       <c r="I45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J45" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G46">
         <v>29</v>
@@ -2391,27 +2529,30 @@
         <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J46" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -2420,27 +2561,30 @@
         <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J47" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M47" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G48">
         <v>31</v>
@@ -2449,27 +2593,30 @@
         <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J48" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M48" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G49">
         <v>32</v>
@@ -2478,27 +2625,30 @@
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J49" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M49" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G50">
         <v>32</v>
@@ -2507,27 +2657,30 @@
         <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J50" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M50" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G51">
         <v>33</v>
@@ -2536,27 +2689,30 @@
         <v>63</v>
       </c>
       <c r="I51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J51" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G52">
         <v>33</v>
@@ -2565,27 +2721,30 @@
         <v>63</v>
       </c>
       <c r="I52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J52" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M52" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G53">
         <v>34</v>
@@ -2594,27 +2753,30 @@
         <v>64</v>
       </c>
       <c r="I53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J53" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M53" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G54">
         <v>35</v>
@@ -2623,27 +2785,30 @@
         <v>75</v>
       </c>
       <c r="I54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J54" s="3">
         <v>45040.58966435185</v>
       </c>
       <c r="M54" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G55">
         <v>37</v>
@@ -2652,27 +2817,30 @@
         <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J55" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G56">
         <v>38</v>
@@ -2681,27 +2849,30 @@
         <v>80</v>
       </c>
       <c r="I56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J56" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M56" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G57">
         <v>39</v>
@@ -2710,27 +2881,30 @@
         <v>81</v>
       </c>
       <c r="I57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J57" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M57" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G58">
         <v>41</v>
@@ -2739,27 +2913,30 @@
         <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J58" s="3">
         <v>45042.86403935185</v>
       </c>
       <c r="M58" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G59">
         <v>42</v>
@@ -2768,27 +2945,30 @@
         <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J59" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M59" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G60">
         <v>44</v>
@@ -2797,27 +2977,30 @@
         <v>87</v>
       </c>
       <c r="I60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J60" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M60" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -2826,27 +3009,30 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G62">
         <v>46</v>
@@ -2855,27 +3041,30 @@
         <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -2884,27 +3073,30 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G64">
         <v>48</v>
@@ -2913,27 +3105,30 @@
         <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J64" s="3">
         <v>45044.00171296296</v>
       </c>
       <c r="M64" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G65">
         <v>49</v>
@@ -2942,27 +3137,30 @@
         <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -2971,27 +3169,30 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -3000,27 +3201,30 @@
         <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M67" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -3029,27 +3233,30 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M68" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G69">
         <v>50</v>
@@ -3058,27 +3265,30 @@
         <v>94</v>
       </c>
       <c r="I69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J69" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M69" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G70">
         <v>51</v>
@@ -3087,27 +3297,30 @@
         <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J70" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M70" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G71">
         <v>54</v>
@@ -3116,27 +3329,30 @@
         <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M71" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G72">
         <v>56</v>
@@ -3145,27 +3361,30 @@
         <v>101</v>
       </c>
       <c r="I72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J72" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M72" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G73">
         <v>57</v>
@@ -3174,27 +3393,30 @@
         <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J73" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M73" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G74">
         <v>57</v>
@@ -3203,27 +3425,30 @@
         <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J74" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M74" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G75">
         <v>59</v>
@@ -3232,27 +3457,30 @@
         <v>104</v>
       </c>
       <c r="I75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J75" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M75" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G76">
         <v>60</v>
@@ -3261,27 +3489,30 @@
         <v>105</v>
       </c>
       <c r="I76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J76" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M76" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G77">
         <v>61</v>
@@ -3290,27 +3521,30 @@
         <v>106</v>
       </c>
       <c r="I77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J77" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M77" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G78">
         <v>65</v>
@@ -3319,27 +3553,30 @@
         <v>111</v>
       </c>
       <c r="I78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J78" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M78" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G79">
         <v>65</v>
@@ -3348,27 +3585,30 @@
         <v>111</v>
       </c>
       <c r="I79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J79" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M79" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G80">
         <v>65</v>
@@ -3377,27 +3617,30 @@
         <v>111</v>
       </c>
       <c r="I80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J80" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M80" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G81">
         <v>66</v>
@@ -3406,27 +3649,30 @@
         <v>113</v>
       </c>
       <c r="I81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J81" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M81" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G82">
         <v>68</v>
@@ -3435,27 +3681,30 @@
         <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M82" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G83">
         <v>69</v>
@@ -3464,27 +3713,30 @@
         <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J83" s="3">
         <v>45048.78865740741</v>
       </c>
       <c r="M83" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G84">
         <v>71</v>
@@ -3493,27 +3745,30 @@
         <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M84" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>217</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G85">
         <v>71</v>
@@ -3522,13 +3777,16 @@
         <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J85" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M85" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p38.xlsx
+++ b/files/separadas/repeat_p38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="220">
   <si>
     <t>p38_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1045,13 +1048,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,19 +1103,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1121,30 +1127,33 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1153,30 +1162,33 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1185,30 +1197,33 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J4" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1217,30 +1232,33 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J5" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1249,30 +1267,33 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J6" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1281,30 +1302,33 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J7" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1313,30 +1337,33 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J8" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1345,30 +1372,33 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J9" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1377,30 +1407,33 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J10" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1409,30 +1442,33 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J11" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -1441,30 +1477,33 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J12" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1473,30 +1512,33 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J13" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -1505,30 +1547,33 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J14" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1537,30 +1582,33 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J15" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1569,30 +1617,33 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J16" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -1601,30 +1652,33 @@
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J17" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G18">
         <v>13</v>
@@ -1633,30 +1687,33 @@
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J18" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1665,30 +1722,33 @@
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J19" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -1697,30 +1757,33 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J20" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -1729,30 +1792,33 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J21" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -1761,30 +1827,33 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J22" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -1793,30 +1862,33 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J23" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24">
         <v>16</v>
@@ -1825,30 +1897,33 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J24" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -1857,30 +1932,33 @@
         <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J25" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G26">
         <v>18</v>
@@ -1889,30 +1967,33 @@
         <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J26" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -1921,30 +2002,33 @@
         <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J27" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G28">
         <v>21</v>
@@ -1953,30 +2037,33 @@
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J28" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G29">
         <v>22</v>
@@ -1985,30 +2072,33 @@
         <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J29" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2017,30 +2107,33 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -2049,30 +2142,33 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -2081,30 +2177,33 @@
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -2113,30 +2212,33 @@
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G34">
         <v>23</v>
@@ -2145,30 +2247,33 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G35">
         <v>23</v>
@@ -2177,30 +2282,33 @@
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G36">
         <v>23</v>
@@ -2209,30 +2317,33 @@
         <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J36" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G37">
         <v>24</v>
@@ -2241,30 +2352,33 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J37" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G38">
         <v>24</v>
@@ -2273,30 +2387,33 @@
         <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J38" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G39">
         <v>24</v>
@@ -2305,30 +2422,33 @@
         <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J39" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G40">
         <v>26</v>
@@ -2337,30 +2457,33 @@
         <v>55</v>
       </c>
       <c r="I40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J40" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -2369,30 +2492,33 @@
         <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J41" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G42">
         <v>27</v>
@@ -2401,30 +2527,33 @@
         <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J42" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G43">
         <v>27</v>
@@ -2433,30 +2562,33 @@
         <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J43" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G44">
         <v>27</v>
@@ -2465,30 +2597,33 @@
         <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J44" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G45">
         <v>28</v>
@@ -2497,30 +2632,33 @@
         <v>57</v>
       </c>
       <c r="I45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J45" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G46">
         <v>29</v>
@@ -2529,30 +2667,33 @@
         <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J46" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -2561,30 +2702,33 @@
         <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J47" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G48">
         <v>31</v>
@@ -2593,30 +2737,33 @@
         <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J48" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G49">
         <v>32</v>
@@ -2625,30 +2772,33 @@
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J49" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G50">
         <v>32</v>
@@ -2657,30 +2807,33 @@
         <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J50" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G51">
         <v>33</v>
@@ -2689,30 +2842,33 @@
         <v>63</v>
       </c>
       <c r="I51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J51" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G52">
         <v>33</v>
@@ -2721,30 +2877,33 @@
         <v>63</v>
       </c>
       <c r="I52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J52" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G53">
         <v>34</v>
@@ -2753,30 +2912,33 @@
         <v>64</v>
       </c>
       <c r="I53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J53" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G54">
         <v>35</v>
@@ -2785,30 +2947,33 @@
         <v>75</v>
       </c>
       <c r="I54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J54" s="3">
         <v>45040.58966435185</v>
       </c>
       <c r="M54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G55">
         <v>37</v>
@@ -2817,30 +2982,33 @@
         <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J55" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G56">
         <v>38</v>
@@ -2849,30 +3017,33 @@
         <v>80</v>
       </c>
       <c r="I56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J56" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G57">
         <v>39</v>
@@ -2881,30 +3052,33 @@
         <v>81</v>
       </c>
       <c r="I57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J57" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G58">
         <v>41</v>
@@ -2913,30 +3087,33 @@
         <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J58" s="3">
         <v>45042.86403935185</v>
       </c>
       <c r="M58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G59">
         <v>42</v>
@@ -2945,30 +3122,33 @@
         <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J59" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G60">
         <v>44</v>
@@ -2977,30 +3157,33 @@
         <v>87</v>
       </c>
       <c r="I60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -3009,30 +3192,33 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G62">
         <v>46</v>
@@ -3041,30 +3227,33 @@
         <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -3073,30 +3262,33 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G64">
         <v>48</v>
@@ -3105,30 +3297,33 @@
         <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J64" s="3">
         <v>45044.00171296296</v>
       </c>
       <c r="M64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G65">
         <v>49</v>
@@ -3137,30 +3332,33 @@
         <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -3169,30 +3367,33 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -3201,30 +3402,33 @@
         <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -3233,30 +3437,33 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G69">
         <v>50</v>
@@ -3265,30 +3472,33 @@
         <v>94</v>
       </c>
       <c r="I69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J69" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G70">
         <v>51</v>
@@ -3297,30 +3507,33 @@
         <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J70" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G71">
         <v>54</v>
@@ -3329,30 +3542,33 @@
         <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G72">
         <v>56</v>
@@ -3361,30 +3577,33 @@
         <v>101</v>
       </c>
       <c r="I72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J72" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G73">
         <v>57</v>
@@ -3393,30 +3612,33 @@
         <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J73" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G74">
         <v>57</v>
@@ -3425,30 +3647,33 @@
         <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J74" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G75">
         <v>59</v>
@@ -3457,30 +3682,33 @@
         <v>104</v>
       </c>
       <c r="I75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J75" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G76">
         <v>60</v>
@@ -3489,30 +3717,33 @@
         <v>105</v>
       </c>
       <c r="I76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J76" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G77">
         <v>61</v>
@@ -3521,30 +3752,33 @@
         <v>106</v>
       </c>
       <c r="I77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J77" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G78">
         <v>64</v>
@@ -3553,30 +3787,33 @@
         <v>111</v>
       </c>
       <c r="I78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J78" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G79">
         <v>64</v>
@@ -3585,30 +3822,33 @@
         <v>111</v>
       </c>
       <c r="I79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J79" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G80">
         <v>64</v>
@@ -3617,30 +3857,33 @@
         <v>111</v>
       </c>
       <c r="I80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J80" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G81">
         <v>65</v>
@@ -3649,30 +3892,33 @@
         <v>113</v>
       </c>
       <c r="I81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J81" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G82">
         <v>67</v>
@@ -3681,30 +3927,33 @@
         <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G83">
         <v>68</v>
@@ -3713,30 +3962,33 @@
         <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J83" s="3">
         <v>45048.78865740741</v>
       </c>
       <c r="M83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G84">
         <v>70</v>
@@ -3745,30 +3997,33 @@
         <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G85">
         <v>70</v>
@@ -3777,15 +4032,18 @@
         <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J85" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p38.xlsx
+++ b/files/separadas/repeat_p38.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="221">
   <si>
     <t>p38_cod</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1048,13 +1051,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,19 +1109,22 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1127,13 +1133,13 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1141,19 +1147,22 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1162,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1176,19 +1185,22 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1197,13 +1209,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J4" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1211,19 +1223,22 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1232,13 +1247,13 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J5" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1246,19 +1261,22 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1267,13 +1285,13 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J6" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1281,19 +1299,22 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1302,13 +1323,13 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J7" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1316,19 +1337,22 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1337,13 +1361,13 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J8" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1351,19 +1375,22 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1372,13 +1399,13 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J9" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1386,19 +1413,22 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1407,13 +1437,13 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J10" s="3">
         <v>45026.78277777778</v>
       </c>
       <c r="M10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1421,19 +1451,22 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1442,13 +1475,13 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J11" s="3">
         <v>45027.65930555556</v>
       </c>
       <c r="M11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1456,19 +1489,22 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -1477,13 +1513,13 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J12" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1491,19 +1527,22 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1512,13 +1551,13 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J13" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1526,19 +1565,22 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -1547,13 +1589,13 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J14" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1561,19 +1603,22 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1582,13 +1627,13 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J15" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1596,19 +1641,22 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1617,13 +1665,13 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J16" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1631,19 +1679,22 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -1652,13 +1703,13 @@
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J17" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1666,19 +1717,22 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G18">
         <v>13</v>
@@ -1687,13 +1741,13 @@
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J18" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1701,19 +1755,22 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1722,13 +1779,13 @@
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J19" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1736,19 +1793,22 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -1757,13 +1817,13 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J20" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1771,19 +1831,22 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -1792,13 +1855,13 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J21" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1806,19 +1869,22 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -1827,13 +1893,13 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J22" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1841,19 +1907,22 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -1862,13 +1931,13 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J23" s="3">
         <v>45029.87159722222</v>
       </c>
       <c r="M23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1876,19 +1945,22 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24">
         <v>16</v>
@@ -1897,13 +1969,13 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J24" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1911,19 +1983,22 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -1932,13 +2007,13 @@
         <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J25" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1946,19 +2021,22 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G26">
         <v>18</v>
@@ -1967,13 +2045,13 @@
         <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J26" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1981,19 +2059,22 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -2002,13 +2083,13 @@
         <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J27" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2016,19 +2097,22 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G28">
         <v>21</v>
@@ -2037,13 +2121,13 @@
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J28" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2051,19 +2135,22 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G29">
         <v>22</v>
@@ -2072,13 +2159,13 @@
         <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J29" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2086,19 +2173,22 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2107,13 +2197,13 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2121,19 +2211,22 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -2142,13 +2235,13 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2156,19 +2249,22 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -2177,13 +2273,13 @@
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2191,19 +2287,22 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -2212,13 +2311,13 @@
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2226,19 +2325,22 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G34">
         <v>23</v>
@@ -2247,13 +2349,13 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2261,19 +2363,22 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G35">
         <v>23</v>
@@ -2282,13 +2387,13 @@
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2296,19 +2401,22 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G36">
         <v>23</v>
@@ -2317,13 +2425,13 @@
         <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J36" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2331,19 +2439,22 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G37">
         <v>24</v>
@@ -2352,13 +2463,13 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J37" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2366,19 +2477,22 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G38">
         <v>24</v>
@@ -2387,13 +2501,13 @@
         <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J38" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2401,19 +2515,22 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G39">
         <v>24</v>
@@ -2422,13 +2539,13 @@
         <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J39" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2436,19 +2553,22 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G40">
         <v>26</v>
@@ -2457,13 +2577,13 @@
         <v>55</v>
       </c>
       <c r="I40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J40" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2471,19 +2591,22 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -2492,13 +2615,13 @@
         <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J41" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2506,19 +2629,22 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G42">
         <v>27</v>
@@ -2527,13 +2653,13 @@
         <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J42" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -2541,19 +2667,22 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G43">
         <v>27</v>
@@ -2562,13 +2691,13 @@
         <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J43" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -2576,19 +2705,22 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G44">
         <v>27</v>
@@ -2597,13 +2729,13 @@
         <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J44" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -2611,19 +2743,22 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G45">
         <v>28</v>
@@ -2632,13 +2767,13 @@
         <v>57</v>
       </c>
       <c r="I45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J45" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2646,19 +2781,22 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G46">
         <v>29</v>
@@ -2667,13 +2805,13 @@
         <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J46" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2681,19 +2819,22 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -2702,13 +2843,13 @@
         <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J47" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2716,19 +2857,22 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G48">
         <v>31</v>
@@ -2737,13 +2881,13 @@
         <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J48" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -2751,19 +2895,22 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G49">
         <v>32</v>
@@ -2772,13 +2919,13 @@
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J49" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -2786,19 +2933,22 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G50">
         <v>32</v>
@@ -2807,13 +2957,13 @@
         <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J50" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -2821,19 +2971,22 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G51">
         <v>33</v>
@@ -2842,13 +2995,13 @@
         <v>63</v>
       </c>
       <c r="I51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J51" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -2856,19 +3009,22 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G52">
         <v>33</v>
@@ -2877,13 +3033,13 @@
         <v>63</v>
       </c>
       <c r="I52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J52" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -2891,19 +3047,22 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G53">
         <v>34</v>
@@ -2912,13 +3071,13 @@
         <v>64</v>
       </c>
       <c r="I53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J53" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -2926,19 +3085,22 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G54">
         <v>35</v>
@@ -2947,13 +3109,13 @@
         <v>75</v>
       </c>
       <c r="I54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J54" s="3">
         <v>45040.58966435185</v>
       </c>
       <c r="M54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -2961,19 +3123,22 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G55">
         <v>37</v>
@@ -2982,13 +3147,13 @@
         <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J55" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -2996,19 +3161,22 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G56">
         <v>38</v>
@@ -3017,13 +3185,13 @@
         <v>80</v>
       </c>
       <c r="I56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J56" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3031,19 +3199,22 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G57">
         <v>39</v>
@@ -3052,13 +3223,13 @@
         <v>81</v>
       </c>
       <c r="I57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J57" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3066,19 +3237,22 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G58">
         <v>41</v>
@@ -3087,13 +3261,13 @@
         <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J58" s="3">
         <v>45042.86403935185</v>
       </c>
       <c r="M58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3101,19 +3275,22 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G59">
         <v>42</v>
@@ -3122,13 +3299,13 @@
         <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3136,19 +3313,22 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G60">
         <v>44</v>
@@ -3157,13 +3337,13 @@
         <v>87</v>
       </c>
       <c r="I60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J60" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3171,19 +3351,22 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -3192,13 +3375,13 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3206,19 +3389,22 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G62">
         <v>46</v>
@@ -3227,13 +3413,13 @@
         <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3241,19 +3427,22 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -3262,13 +3451,13 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3276,19 +3465,22 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G64">
         <v>48</v>
@@ -3297,13 +3489,13 @@
         <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J64" s="3">
         <v>45044.00171296296</v>
       </c>
       <c r="M64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3311,19 +3503,22 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G65">
         <v>49</v>
@@ -3332,13 +3527,13 @@
         <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3346,19 +3541,22 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -3367,13 +3565,13 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3381,19 +3579,22 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -3402,13 +3603,13 @@
         <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3416,19 +3617,22 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -3437,13 +3641,13 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -3451,19 +3655,22 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G69">
         <v>50</v>
@@ -3472,13 +3679,13 @@
         <v>94</v>
       </c>
       <c r="I69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J69" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -3486,19 +3693,22 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G70">
         <v>51</v>
@@ -3507,13 +3717,13 @@
         <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J70" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -3521,19 +3731,22 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G71">
         <v>54</v>
@@ -3542,13 +3755,13 @@
         <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -3556,19 +3769,22 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G72">
         <v>56</v>
@@ -3577,13 +3793,13 @@
         <v>101</v>
       </c>
       <c r="I72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J72" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -3591,19 +3807,22 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G73">
         <v>57</v>
@@ -3612,13 +3831,13 @@
         <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J73" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -3626,19 +3845,22 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G74">
         <v>57</v>
@@ -3647,13 +3869,13 @@
         <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J74" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -3661,19 +3883,22 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G75">
         <v>59</v>
@@ -3682,13 +3907,13 @@
         <v>104</v>
       </c>
       <c r="I75" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J75" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -3696,19 +3921,22 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G76">
         <v>60</v>
@@ -3717,13 +3945,13 @@
         <v>105</v>
       </c>
       <c r="I76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J76" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -3731,19 +3959,22 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G77">
         <v>61</v>
@@ -3752,13 +3983,13 @@
         <v>106</v>
       </c>
       <c r="I77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J77" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -3766,19 +3997,22 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G78">
         <v>64</v>
@@ -3787,13 +4021,13 @@
         <v>111</v>
       </c>
       <c r="I78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J78" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -3801,19 +4035,22 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G79">
         <v>64</v>
@@ -3822,13 +4059,13 @@
         <v>111</v>
       </c>
       <c r="I79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J79" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -3836,19 +4073,22 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G80">
         <v>64</v>
@@ -3857,13 +4097,13 @@
         <v>111</v>
       </c>
       <c r="I80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J80" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -3871,19 +4111,22 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G81">
         <v>65</v>
@@ -3892,13 +4135,13 @@
         <v>113</v>
       </c>
       <c r="I81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J81" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -3906,19 +4149,22 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G82">
         <v>67</v>
@@ -3927,13 +4173,13 @@
         <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -3941,19 +4187,22 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G83">
         <v>68</v>
@@ -3962,13 +4211,13 @@
         <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J83" s="3">
         <v>45048.78865740741</v>
       </c>
       <c r="M83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -3976,19 +4225,22 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G84">
         <v>70</v>
@@ -3997,13 +4249,13 @@
         <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4011,19 +4263,22 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G85">
         <v>70</v>
@@ -4032,18 +4287,21 @@
         <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J85" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
       <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p38.xlsx
+++ b/files/separadas/repeat_p38.xlsx
@@ -628,13 +628,13 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -682,13 +682,13 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -736,13 +736,13 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -790,13 +790,13 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -844,13 +844,13 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">

--- a/files/separadas/repeat_p38.xlsx
+++ b/files/separadas/repeat_p38.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4EFCC9-77DE-4924-8AFC-D84A341F85A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C2ECA-F092-42AD-B2D2-7D6AE390CE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3510" windowWidth="38400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="302">
   <si>
     <t>p38_cod</t>
   </si>
@@ -76,607 +76,856 @@
     <t>37.1 LA BP-12_22_31.rar</t>
   </si>
   <si>
+    <t>a835f2e5-8516-4942-8526-44d7338480bc</t>
+  </si>
+  <si>
+    <t>submitted_via_web</t>
+  </si>
+  <si>
+    <t>Pagina web - circulares</t>
+  </si>
+  <si>
+    <t>P38_1_Información_circulares_DASCD_2022-14_54_3.docx</t>
+  </si>
+  <si>
+    <t>7e1205f0-4cd8-4e39-80fd-7651266ddc5f</t>
+  </si>
+  <si>
+    <t>Pagina web-Plataforma Aprendizaje Organizacional</t>
+  </si>
+  <si>
+    <t>P38_2_Información_PAO_DASCD_2022-14_54_19.docx</t>
+  </si>
+  <si>
+    <t>Pagina web-Conceptos Misionales</t>
+  </si>
+  <si>
+    <t>P38_3_Información_Conceptos_Misionales_DASCD_2022-14_54_34.docx</t>
+  </si>
+  <si>
+    <t>Pagina Web-Banco Buenas Practicas Misionales</t>
+  </si>
+  <si>
+    <t>P38_4_Organización_Banco_Buenas_Practic_Misionales-14_54_48.docx</t>
+  </si>
+  <si>
+    <t>Pagina web-Sistema Analítica Datos misionales GITH</t>
+  </si>
+  <si>
+    <t>P38_5_Sistema_Analitica_Datos_GTH-14_54_57.docx</t>
+  </si>
+  <si>
+    <t>Intranet de la entidad</t>
+  </si>
+  <si>
+    <t>intranet-13_46_8.pdf</t>
+  </si>
+  <si>
+    <t>6e2f4e1e-b26e-497d-b6f0-bf30f162c1dc</t>
+  </si>
+  <si>
+    <t>gcn-m005_v3-13_46_37.pdf</t>
+  </si>
+  <si>
+    <t>gcn-p005_v3-13_46_44.pdf</t>
+  </si>
+  <si>
+    <t>Intranet Institucional</t>
+  </si>
+  <si>
+    <t>EPLE-FT-040 FORMATO DE LECCIONES APRENDIDAS Y BUENAS PRÁCTICAS - Participación Ciudadana (1)-18_12_41.pdf</t>
+  </si>
+  <si>
+    <t>7685ff5a-9ae7-4ffc-b81d-8ab9fa125415</t>
+  </si>
+  <si>
+    <t>intranet entidad</t>
+  </si>
+  <si>
+    <t>Publicación lecciones aprendidas y buenas practicas -19_19_14.pdf</t>
+  </si>
+  <si>
+    <t>c4f36231-7247-483a-b21e-44e5d118db29</t>
+  </si>
+  <si>
+    <t>01 Web SDIS sistema gestión</t>
+  </si>
+  <si>
+    <t>R38_01 20210525_for_ti_014_v0_formato_matriz_lecciones_aprendidas (2)-21_54_48.xlsx</t>
+  </si>
+  <si>
+    <t>deca3f0e-aeac-4446-8e7c-793ba8cb2bb2</t>
+  </si>
+  <si>
+    <t>02 Web SDIS SG buenas práticas</t>
+  </si>
+  <si>
+    <t>R38_02 22112023_mnl_pss_011_v0_manual_buenas_practicas_para_la_prevencion_de_PDA-21_56_17.docx</t>
+  </si>
+  <si>
+    <t>"03 sitio web SDIS sistema de gestión</t>
+  </si>
+  <si>
+    <t>R38_03 20171127_ins_gc_002_v1_instructivo_sistematizacion_de_experiencias-21_57_22.docx</t>
+  </si>
+  <si>
+    <t>04 Repositorio de buenas practicas de la SDIS</t>
+  </si>
+  <si>
+    <t>R38_04 Repositorio de buenas practicas 09052021 (_Lilian Andrea Melo M (1)-21_57_44.xlsx</t>
+  </si>
+  <si>
+    <t>Sede Electronica</t>
+  </si>
+  <si>
+    <t>INFORME BUENAS PRACTICAS II SEMESTRE 2021-17_27_17.pdf</t>
+  </si>
+  <si>
+    <t>6b9496af-f22b-4ffa-8fd0-3715b7a4c44f</t>
+  </si>
+  <si>
+    <t>Publicada en aplicativo Almera</t>
+  </si>
+  <si>
+    <t>02-03-MA-0001 Manual de la mejora institucional V11-13_10_27.pdf</t>
+  </si>
+  <si>
+    <t>a6fa44d1-a682-4599-8e12-a0f1a12b6b69</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>05-02-MA-0003 Manual del centro de investigación-13_11_0.docx</t>
+  </si>
+  <si>
+    <t>05-01-MA-0001 Manual de docencia servicio V4-13_12_18.pdf</t>
+  </si>
+  <si>
+    <t>https://fuga.gov.co/publicaciones</t>
+  </si>
+  <si>
+    <t>Mapeando el Centro _ Fundación Gilberto Alzate Avendaño-15_17_37.pdf</t>
+  </si>
+  <si>
+    <t>9a322050-1f3a-4431-87f4-5d24fb1adcf5</t>
+  </si>
+  <si>
+    <t>Experiencia de la FUGA en la participación ciudadana _ Fundación Gilberto Alzate Avendaño-15_19_9.pdf</t>
+  </si>
+  <si>
+    <t>Observatorio de Mujeres y Equidad de Gerero - OMEG</t>
+  </si>
+  <si>
+    <t>Evidencia pregunta 38-17_39_43.zip</t>
+  </si>
+  <si>
+    <t>7a5e1933-2716-444c-81f2-b9f0d9497cc6</t>
+  </si>
+  <si>
+    <t>Carpeta Drive (RIM)</t>
+  </si>
+  <si>
+    <t>BUENAS PRACTICAS 2022-11_5_51.zip</t>
+  </si>
+  <si>
+    <t>6da76978-4091-4857-991a-24dbc6ac5894</t>
+  </si>
+  <si>
+    <t>https://www.umv.gov.co/portal/ innovacion vial</t>
+  </si>
+  <si>
+    <t>Pregunta 36-12_11_0.zip</t>
+  </si>
+  <si>
+    <t>ce0f66f7-a7ad-4e4f-a631-f083237dcc0a</t>
+  </si>
+  <si>
+    <t>Página web de la entidad  e intranet</t>
+  </si>
+  <si>
+    <t>Pregunta 38-12_0_16.rar</t>
+  </si>
+  <si>
+    <t>e819483d-de24-47eb-9b19-97a2880958fe</t>
+  </si>
+  <si>
+    <t>isolucion</t>
+  </si>
+  <si>
+    <t>isolucion-18_35_43.docx</t>
+  </si>
+  <si>
+    <t>6c08e1b7-e43e-42ef-ad4a-9bc3c77ed37f</t>
+  </si>
+  <si>
+    <t>Pagina Web Capital Salud EPS-S</t>
+  </si>
+  <si>
+    <t>Pregunta 38 -18_10_30.pdf</t>
+  </si>
+  <si>
+    <t>47a52a9a-d3fa-4c48-b3fe-5d6916c283e4</t>
+  </si>
+  <si>
+    <t>En la Intranet de la Secretaría de Planeación</t>
+  </si>
+  <si>
+    <t>38_Link_intranet_documentos-21_57_5.docx</t>
+  </si>
+  <si>
+    <t>4345be1e-ba97-44b0-8bcb-dc935f6b691f</t>
+  </si>
+  <si>
+    <t>Isolucion</t>
+  </si>
+  <si>
+    <t>PROGRAMA BUENAS PRACTICAS Y LECCIONES APRENDIDAS -16_52_39.pdf</t>
+  </si>
+  <si>
+    <t>289452a5-d96a-41a2-89f0-a16058a70511</t>
+  </si>
+  <si>
+    <t>http://cdeis.saludcapital.gov.co</t>
+  </si>
+  <si>
+    <t>prog buenas practicas-16_54_39.pdf</t>
+  </si>
+  <si>
+    <t>Observatorio Saludata</t>
+  </si>
+  <si>
+    <t>Saludata - Observatorio -16_55_27.pdf</t>
+  </si>
+  <si>
+    <t>https://moodle.serviciocivil.gov.co/</t>
+  </si>
+  <si>
+    <t>Implementación del Modelo Integrado de Planeación y Gestión en la Secretaría Distrital de Salud-16_56_6.pdf</t>
+  </si>
+  <si>
+    <t>Circular_046-2022-16_56_56.pdf</t>
+  </si>
+  <si>
+    <t>Internamente</t>
+  </si>
+  <si>
+    <t>Lecciones_aprendidas_vacunacion_julio (2)_compressed-17_0_31.pdf</t>
+  </si>
+  <si>
+    <t>MANUALDEBUENASPRACTICAS-16_58_37.pdf</t>
+  </si>
+  <si>
+    <t>Alertas tempranas en página WEB</t>
+  </si>
+  <si>
+    <t>Alertas tempranas-11_54_24.zip</t>
+  </si>
+  <si>
+    <t>b3a1580a-2f11-468c-9336-e1ce3cc1e57b</t>
+  </si>
+  <si>
+    <t>Inventario conocimiento explícito</t>
+  </si>
+  <si>
+    <t>2310100-FT-412 Inventario de conocimiento explicito V1-11_7_31.xlsx</t>
+  </si>
+  <si>
+    <t>ODCLA pagina WEB de la SJD</t>
+  </si>
+  <si>
+    <t>ODCLA-10_17_31.zip</t>
+  </si>
+  <si>
+    <t>VISOR DE DOCUMENTOS DEL SISTEMA DE GESTION</t>
+  </si>
+  <si>
+    <t>127-PRCDE-16-15_19_29.pdf</t>
+  </si>
+  <si>
+    <t>ee7bd620-6ee5-4108-8fa5-fa43df59f142</t>
+  </si>
+  <si>
+    <t>PAGINA WEB SERVICIO CIVIL DISTRITAL</t>
+  </si>
+  <si>
+    <t>Banco de buenas practicas-15_30_3.docx</t>
+  </si>
+  <si>
+    <t>Intranet de la empresa ERUnet</t>
+  </si>
+  <si>
+    <t>P38_FT-221 Buenas practicas V1-0_58_41.xlsx</t>
+  </si>
+  <si>
+    <t>1d8d452b-c609-4ae7-9b8c-567a1f28032f</t>
+  </si>
+  <si>
+    <t>P38_FT-222 Leccion aprend V1-10_9_58.docx</t>
+  </si>
+  <si>
+    <t>P39_MN-11 Manu herram G Conoc Innov V1_0-1_1_47.pdf</t>
+  </si>
+  <si>
+    <t>Sistema Buenas prácticas (ej contrato suministro)</t>
+  </si>
+  <si>
+    <t>soporte1-23_11_50.pdf</t>
+  </si>
+  <si>
+    <t>93c5d9a1-9971-4450-ab5a-66a350eb158a</t>
+  </si>
+  <si>
+    <t>Canal YouTube EAAB-ESP</t>
+  </si>
+  <si>
+    <t>soporte indice innovacion-14_25_21.docx</t>
+  </si>
+  <si>
+    <t>8e512352-7788-420d-9f94-e0ba1018820f</t>
+  </si>
+  <si>
+    <t>https://shre.ink/ksGI</t>
+  </si>
+  <si>
+    <t>Informe_de_Gestion_con_corte_a_31_de_diciembre_de_2022 JBB_compressed (3)-21_45_34.pdf</t>
+  </si>
+  <si>
+    <t>eb0a045e-2518-4482-a623-8351a9340e2a</t>
+  </si>
+  <si>
+    <t>No se publicó</t>
+  </si>
+  <si>
+    <t>documentos gestión del conocimiento -16_51_21.zip</t>
+  </si>
+  <si>
+    <t>853d09e9-df1f-4a9b-a21c-5d2499e3ffa4</t>
+  </si>
+  <si>
+    <t>Centro de Documentación y Memoria</t>
+  </si>
+  <si>
+    <t>OBJ. 22_POL_18_CENTRO_DOCUMENTACION_OACP_2022_JAIME ALEXANDER VILL-20_50_18.pdf</t>
+  </si>
+  <si>
+    <t>1da7de14-57d3-4f35-8b1e-f66c3d95aeeb</t>
+  </si>
+  <si>
+    <t>Escuela Interna de Formación de Formadores</t>
+  </si>
+  <si>
+    <t>EIFF 2022-17_13_55.pdf</t>
+  </si>
+  <si>
+    <t>Pagina web: Transparencia</t>
+  </si>
+  <si>
+    <t>1. INFORME DE GESTIÓN 2021-11_38_10.pdf</t>
+  </si>
+  <si>
+    <t>69a66e34-418d-4f80-85cd-f9510d2d524e</t>
+  </si>
+  <si>
+    <t>2. Soporte informe sostenibilidad y gestion-11_38_21.pdf</t>
+  </si>
+  <si>
+    <t>Intranet IDIPRON</t>
+  </si>
+  <si>
+    <t>604384620-Lecciones-Aprendidas-14_41_8.pdf</t>
+  </si>
+  <si>
+    <t>99890a0b-70de-4846-8562-08860ab50475</t>
+  </si>
+  <si>
+    <t>Repositorio Institucional</t>
+  </si>
+  <si>
+    <t>InformesBuenasPractica_compressed-8_46_34.pdf</t>
+  </si>
+  <si>
+    <t>ccb07bc2-67b9-4c6b-9d1e-8d84493cde19</t>
+  </si>
+  <si>
+    <t>Socializo al interior por correo institucional</t>
+  </si>
+  <si>
+    <t>Buenas practicas SGSST-13_52_38.pdf</t>
+  </si>
+  <si>
+    <t>1b09ae65-d423-41ce-bb04-76539e953cd1</t>
+  </si>
+  <si>
+    <t>Aplicativo Isolución</t>
+  </si>
+  <si>
+    <t>Procedimiento y formatos 37.1 y 38.1-16_45_28.pdf</t>
+  </si>
+  <si>
+    <t>f44cbd7c-171d-4b35-9133-8901fb67c3a0</t>
+  </si>
+  <si>
+    <t>Intranet</t>
+  </si>
+  <si>
+    <t>38 BUENAS PRACTICAS-18_37_16.pdf</t>
+  </si>
+  <si>
+    <t>2a1228b4-8ee2-424d-ac64-2c28d249f7f7</t>
+  </si>
+  <si>
+    <t>En la Pagina web de la entidad micrositio SIG.</t>
+  </si>
+  <si>
+    <t>BUENAS PRACTICAS Y LECCIONES APRENDIDAS-15_32_59.zip</t>
+  </si>
+  <si>
+    <t>f40536a4-9859-440c-8dbe-6de07ea0c57f</t>
+  </si>
+  <si>
+    <t>En la página web</t>
+  </si>
+  <si>
+    <t>Rad Concejo de Bogota Inf geston 2022 Rad. 000076 02022023-18_31_17.pdf</t>
+  </si>
+  <si>
+    <t>e6e31363-d0e1-4ece-bc04-b52a0896a5c3</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Anexo en blanco Índice de Innovación.-12_48_19.docx</t>
+  </si>
+  <si>
+    <t>dae08630-74c8-44c3-906c-d4b7fdbd4bfa</t>
+  </si>
+  <si>
+    <t>Se identificaron pero no se sistematizadas</t>
+  </si>
+  <si>
+    <t>LA Y BP-14_36_21.pdf</t>
+  </si>
+  <si>
+    <t>5026a6c5-bc28-4abe-ba16-84848fd70f3f</t>
+  </si>
+  <si>
+    <t>Se desarrolló pero no se publicó</t>
+  </si>
+  <si>
+    <t>P38_1 Guía documención buenas prácticas-15_6_37.pdf</t>
+  </si>
+  <si>
+    <t>55d0f698-9b69-4a7f-8a64-33a3e2236f56</t>
+  </si>
+  <si>
+    <t>P38_2 Buenas practicas de gestión interna-15_6_52.pdf</t>
+  </si>
+  <si>
+    <t>módulo de Almera.</t>
+  </si>
+  <si>
+    <t>Plantilla-19_2_3.docx</t>
+  </si>
+  <si>
+    <t>924f505e-b985-4139-a03f-2075e23075d0</t>
+  </si>
+  <si>
+    <t>Drive de la entidad. Uso interno.</t>
+  </si>
+  <si>
+    <t>PE02-G02-F08 consentimiento transfer con-7_20_6.pdf</t>
+  </si>
+  <si>
+    <t>e739d624-2335-4c9f-87af-db9ba828e296</t>
+  </si>
+  <si>
+    <t>Web institucional y correo electrónico</t>
+  </si>
+  <si>
+    <t>GE-PO01-FT01 Documentación De Buenas Practicas (2)-18_19_27.docx</t>
+  </si>
+  <si>
+    <t>e4cd18f0-b93e-43e3-9e70-b67b5b86101d</t>
+  </si>
+  <si>
+    <t>GE-PO01-FT02 Documentación De Lecciones Aprendidas (1) (3)-18_20_51.docx</t>
+  </si>
+  <si>
+    <t>Live Youtube y Facebook institucional</t>
+  </si>
+  <si>
+    <t>Pantallazos. presentación Youtube- Buenas practicas-14_57_3.pdf</t>
+  </si>
+  <si>
+    <t>Live Youtube y facebook institucional</t>
+  </si>
+  <si>
+    <t>Buenas practicas Estaciones- Feria del Conocimiento y la Innovacion-14_57_52.pdf</t>
+  </si>
+  <si>
+    <t>Página WEB . Drive</t>
+  </si>
+  <si>
+    <t>2022-08-24_Formato_documentacion_buenas_practicas_PIC sin recursos-15_54_57.pdf</t>
+  </si>
+  <si>
+    <t>e32446a6-18d0-481c-b2b4-3e32a9356113</t>
+  </si>
+  <si>
+    <t>banco_buenas_practicas_sdg_-_primer_semestre_2022-17_59_57.xlsx</t>
+  </si>
+  <si>
+    <t>b00a799a-4c7e-449c-9eb8-8f3d4123e788</t>
+  </si>
+  <si>
+    <t>Mejores practicas-18_42_35.pdf</t>
+  </si>
+  <si>
+    <t>26cbed04-cff6-45d8-8c3b-98ac8e94a5de</t>
+  </si>
+  <si>
+    <t>En la intranet de la entidad</t>
+  </si>
+  <si>
+    <t>Evidencias Fondo de Prestaciones Económicas Cesantías y Pensiones-16_29_14.pdf</t>
+  </si>
+  <si>
+    <t>965af449-187b-477e-b052-6c8466485c06</t>
+  </si>
+  <si>
+    <t>En SVE sistema de gestión de calidad</t>
+  </si>
+  <si>
+    <t>Evidencias Fondo de Prestaciones Económicas Cesantías y Pensiones-16_29_57.pdf</t>
+  </si>
+  <si>
+    <t>Intranet SDG</t>
+  </si>
+  <si>
+    <t>AGORA KENNEDY banco_buenas_practicas_sdg_-_primer_semestre_2022-21_51_28.pdf</t>
+  </si>
+  <si>
+    <t>d65b7bcc-d53a-4543-a294-6f52e146281d</t>
+  </si>
+  <si>
+    <t>http://gaia.gobiernobogota.gov.co</t>
+  </si>
+  <si>
+    <t>C:\fakepath\HOJA DE SOPORTE INNOVACIÓN.docx</t>
+  </si>
+  <si>
+    <t>16790b2a-7734-4ee5-8914-a100e6c136cb</t>
+  </si>
+  <si>
+    <t>ARCHIVO CON EL LINK-3-22_22_19.docx</t>
+  </si>
+  <si>
+    <t>1b8fefa0-afe4-4c6e-9a13-e15c39b76a4e</t>
+  </si>
+  <si>
+    <t>gcn-m005_v3-11_16_45.pdf</t>
+  </si>
+  <si>
+    <t>1dcd0622-9833-4ca8-8b09-ea7617ead3c3</t>
+  </si>
+  <si>
+    <t>gcn-p005_v3-11_17_11.pdf</t>
+  </si>
+  <si>
+    <t>Gestión del conocimiento y La Innovación | Intranet-11_17_22.pdf</t>
+  </si>
+  <si>
+    <t>Buenas Prácticas y Lecciones Aprendida</t>
+  </si>
+  <si>
+    <t>banco_buenas_practicas_sdg_-_primer_semestre_2022-16_13_46.xlsx</t>
+  </si>
+  <si>
+    <t>29b462d1-a002-4c07-a854-1c82fc10829f</t>
+  </si>
+  <si>
+    <t>Gestor documental de la entidad - Orfeo</t>
+  </si>
+  <si>
+    <t>Anexo-E-transferencia-de-aprendizaje DLB.docx-19_4_42.pdf</t>
+  </si>
+  <si>
+    <t>df3c6d45-a610-452f-9f01-3efae7005f0f</t>
+  </si>
+  <si>
+    <t>Pagina Web - Formatos</t>
+  </si>
+  <si>
+    <t>NA-13_51_40.pdf</t>
+  </si>
+  <si>
+    <t>13c871d7-fe73-4392-8291-30cc78ffa857</t>
+  </si>
+  <si>
+    <t>Página web del IDPAC</t>
+  </si>
+  <si>
+    <t>C:\fakepath\PAPER LabLocal-15_42_8.pdf.txt</t>
+  </si>
+  <si>
+    <t>8f2013cb-a19d-4b94-82e1-dde826049c56</t>
+  </si>
+  <si>
+    <t>C:\fakepath\Paper Corredor Verde Carrera Séptima-15_42_17.pdf.txt</t>
+  </si>
+  <si>
     <t>Índice de Innovación Pública 2023</t>
   </si>
   <si>
-    <t>a835f2e5-8516-4942-8526-44d7338480bc</t>
-  </si>
-  <si>
-    <t>submitted_via_web</t>
-  </si>
-  <si>
-    <t>Pagina web - circulares</t>
-  </si>
-  <si>
-    <t>P38_1_Información_circulares_DASCD_2022-14_54_3.docx</t>
-  </si>
-  <si>
-    <t>7e1205f0-4cd8-4e39-80fd-7651266ddc5f</t>
-  </si>
-  <si>
-    <t>Pagina web-Plataforma Aprendizaje Organizacional</t>
-  </si>
-  <si>
-    <t>P38_2_Información_PAO_DASCD_2022-14_54_19.docx</t>
-  </si>
-  <si>
-    <t>Pagina web-Conceptos Misionales</t>
-  </si>
-  <si>
-    <t>P38_3_Información_Conceptos_Misionales_DASCD_2022-14_54_34.docx</t>
-  </si>
-  <si>
-    <t>Pagina Web-Banco Buenas Practicas Misionales</t>
-  </si>
-  <si>
-    <t>P38_4_Organización_Banco_Buenas_Practic_Misionales-14_54_48.docx</t>
-  </si>
-  <si>
-    <t>Pagina web-Sistema Analítica Datos misionales GITH</t>
-  </si>
-  <si>
-    <t>P38_5_Sistema_Analitica_Datos_GTH-14_54_57.docx</t>
-  </si>
-  <si>
-    <t>Intranet de la entidad</t>
-  </si>
-  <si>
-    <t>intranet-13_46_8.pdf</t>
-  </si>
-  <si>
-    <t>6e2f4e1e-b26e-497d-b6f0-bf30f162c1dc</t>
-  </si>
-  <si>
-    <t>gcn-m005_v3-13_46_37.pdf</t>
-  </si>
-  <si>
-    <t>gcn-p005_v3-13_46_44.pdf</t>
-  </si>
-  <si>
-    <t>Intranet Institucional</t>
-  </si>
-  <si>
-    <t>EPLE-FT-040 FORMATO DE LECCIONES APRENDIDAS Y BUENAS PRÁCTICAS - Participación Ciudadana (1)-18_12_41.pdf</t>
-  </si>
-  <si>
-    <t>7685ff5a-9ae7-4ffc-b81d-8ab9fa125415</t>
-  </si>
-  <si>
-    <t>intranet entidad</t>
-  </si>
-  <si>
-    <t>Publicación lecciones aprendidas y buenas practicas -19_19_14.pdf</t>
-  </si>
-  <si>
-    <t>c4f36231-7247-483a-b21e-44e5d118db29</t>
-  </si>
-  <si>
-    <t>01 Web SDIS sistema gestión</t>
-  </si>
-  <si>
-    <t>R38_01 20210525_for_ti_014_v0_formato_matriz_lecciones_aprendidas (2)-21_54_48.xlsx</t>
-  </si>
-  <si>
-    <t>deca3f0e-aeac-4446-8e7c-793ba8cb2bb2</t>
-  </si>
-  <si>
-    <t>02 Web SDIS SG buenas práticas</t>
-  </si>
-  <si>
-    <t>R38_02 22112023_mnl_pss_011_v0_manual_buenas_practicas_para_la_prevencion_de_PDA-21_56_17.docx</t>
-  </si>
-  <si>
-    <t>"03 sitio web SDIS sistema de gestión</t>
-  </si>
-  <si>
-    <t>R38_03 20171127_ins_gc_002_v1_instructivo_sistematizacion_de_experiencias-21_57_22.docx</t>
-  </si>
-  <si>
-    <t>04 Repositorio de buenas practicas de la SDIS</t>
-  </si>
-  <si>
-    <t>R38_04 Repositorio de buenas practicas 09052021 (_Lilian Andrea Melo M (1)-21_57_44.xlsx</t>
-  </si>
-  <si>
-    <t>Sede Electronica</t>
-  </si>
-  <si>
-    <t>INFORME BUENAS PRACTICAS II SEMESTRE 2021-17_27_17.pdf</t>
-  </si>
-  <si>
-    <t>6b9496af-f22b-4ffa-8fd0-3715b7a4c44f</t>
-  </si>
-  <si>
-    <t>Publicada en aplicativo Almera</t>
-  </si>
-  <si>
-    <t>02-03-MA-0001 Manual de la mejora institucional V11-13_10_27.pdf</t>
-  </si>
-  <si>
-    <t>a6fa44d1-a682-4599-8e12-a0f1a12b6b69</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>05-02-MA-0003 Manual del centro de investigación-13_11_0.docx</t>
-  </si>
-  <si>
-    <t>05-01-MA-0001 Manual de docencia servicio V4-13_12_18.pdf</t>
-  </si>
-  <si>
-    <t>https://fuga.gov.co/publicaciones</t>
-  </si>
-  <si>
-    <t>Mapeando el Centro _ Fundación Gilberto Alzate Avendaño-15_17_37.pdf</t>
-  </si>
-  <si>
-    <t>9a322050-1f3a-4431-87f4-5d24fb1adcf5</t>
-  </si>
-  <si>
-    <t>Experiencia de la FUGA en la participación ciudadana _ Fundación Gilberto Alzate Avendaño-15_19_9.pdf</t>
-  </si>
-  <si>
-    <t>Observatorio de Mujeres y Equidad de Gerero - OMEG</t>
-  </si>
-  <si>
-    <t>Evidencia pregunta 38-17_39_43.zip</t>
-  </si>
-  <si>
-    <t>7a5e1933-2716-444c-81f2-b9f0d9497cc6</t>
-  </si>
-  <si>
-    <t>Carpeta Drive (RIM)</t>
-  </si>
-  <si>
-    <t>BUENAS PRACTICAS 2022-11_5_51.zip</t>
-  </si>
-  <si>
-    <t>6da76978-4091-4857-991a-24dbc6ac5894</t>
-  </si>
-  <si>
-    <t>https://www.umv.gov.co/portal/ innovacion vial</t>
-  </si>
-  <si>
-    <t>Pregunta 36-12_11_0.zip</t>
-  </si>
-  <si>
-    <t>ce0f66f7-a7ad-4e4f-a631-f083237dcc0a</t>
-  </si>
-  <si>
-    <t>Página web de la entidad  e intranet</t>
-  </si>
-  <si>
-    <t>Pregunta 38-12_0_16.rar</t>
-  </si>
-  <si>
-    <t>e819483d-de24-47eb-9b19-97a2880958fe</t>
-  </si>
-  <si>
-    <t>isolucion</t>
-  </si>
-  <si>
-    <t>isolucion-18_35_43.docx</t>
-  </si>
-  <si>
-    <t>6c08e1b7-e43e-42ef-ad4a-9bc3c77ed37f</t>
-  </si>
-  <si>
-    <t>Pagina Web Capital Salud EPS-S</t>
-  </si>
-  <si>
-    <t>Pregunta 38 -18_10_30.pdf</t>
-  </si>
-  <si>
-    <t>47a52a9a-d3fa-4c48-b3fe-5d6916c283e4</t>
-  </si>
-  <si>
-    <t>En la Intranet de la Secretaría de Planeación</t>
-  </si>
-  <si>
-    <t>38_Link_intranet_documentos-21_57_5.docx</t>
-  </si>
-  <si>
-    <t>4345be1e-ba97-44b0-8bcb-dc935f6b691f</t>
-  </si>
-  <si>
-    <t>Isolucion</t>
-  </si>
-  <si>
-    <t>PROGRAMA BUENAS PRACTICAS Y LECCIONES APRENDIDAS -16_52_39.pdf</t>
-  </si>
-  <si>
-    <t>289452a5-d96a-41a2-89f0-a16058a70511</t>
-  </si>
-  <si>
-    <t>http://cdeis.saludcapital.gov.co</t>
-  </si>
-  <si>
-    <t>prog buenas practicas-16_54_39.pdf</t>
-  </si>
-  <si>
-    <t>Observatorio Saludata</t>
-  </si>
-  <si>
-    <t>Saludata - Observatorio -16_55_27.pdf</t>
-  </si>
-  <si>
-    <t>https://moodle.serviciocivil.gov.co/</t>
-  </si>
-  <si>
-    <t>Implementación del Modelo Integrado de Planeación y Gestión en la Secretaría Distrital de Salud-16_56_6.pdf</t>
-  </si>
-  <si>
-    <t>Circular_046-2022-16_56_56.pdf</t>
-  </si>
-  <si>
-    <t>Internamente</t>
-  </si>
-  <si>
-    <t>Lecciones_aprendidas_vacunacion_julio (2)_compressed-17_0_31.pdf</t>
-  </si>
-  <si>
-    <t>MANUALDEBUENASPRACTICAS-16_58_37.pdf</t>
-  </si>
-  <si>
-    <t>Alertas tempranas en página WEB</t>
-  </si>
-  <si>
-    <t>Alertas tempranas-11_54_24.zip</t>
-  </si>
-  <si>
-    <t>b3a1580a-2f11-468c-9336-e1ce3cc1e57b</t>
-  </si>
-  <si>
-    <t>Inventario conocimiento explícito</t>
-  </si>
-  <si>
-    <t>2310100-FT-412 Inventario de conocimiento explicito V1-11_7_31.xlsx</t>
-  </si>
-  <si>
-    <t>ODCLA pagina WEB de la SJD</t>
-  </si>
-  <si>
-    <t>ODCLA-10_17_31.zip</t>
-  </si>
-  <si>
-    <t>VISOR DE DOCUMENTOS DEL SISTEMA DE GESTION</t>
-  </si>
-  <si>
-    <t>127-PRCDE-16-15_19_29.pdf</t>
-  </si>
-  <si>
-    <t>ee7bd620-6ee5-4108-8fa5-fa43df59f142</t>
-  </si>
-  <si>
-    <t>PAGINA WEB SERVICIO CIVIL DISTRITAL</t>
-  </si>
-  <si>
-    <t>Banco de buenas practicas-15_30_3.docx</t>
-  </si>
-  <si>
-    <t>Intranet de la empresa ERUnet</t>
-  </si>
-  <si>
-    <t>P38_FT-221 Buenas practicas V1-0_58_41.xlsx</t>
-  </si>
-  <si>
-    <t>1d8d452b-c609-4ae7-9b8c-567a1f28032f</t>
-  </si>
-  <si>
-    <t>P38_FT-222 Leccion aprend V1-10_9_58.docx</t>
-  </si>
-  <si>
-    <t>P39_MN-11 Manu herram G Conoc Innov V1_0-1_1_47.pdf</t>
-  </si>
-  <si>
-    <t>Sistema Buenas prácticas (ej contrato suministro)</t>
-  </si>
-  <si>
-    <t>soporte1-23_11_50.pdf</t>
-  </si>
-  <si>
-    <t>93c5d9a1-9971-4450-ab5a-66a350eb158a</t>
-  </si>
-  <si>
-    <t>Canal YouTube EAAB-ESP</t>
-  </si>
-  <si>
-    <t>soporte indice innovacion-14_25_21.docx</t>
-  </si>
-  <si>
-    <t>8e512352-7788-420d-9f94-e0ba1018820f</t>
-  </si>
-  <si>
-    <t>https://shre.ink/ksGI</t>
-  </si>
-  <si>
-    <t>Informe_de_Gestion_con_corte_a_31_de_diciembre_de_2022 JBB_compressed (3)-21_45_34.pdf</t>
-  </si>
-  <si>
-    <t>eb0a045e-2518-4482-a623-8351a9340e2a</t>
-  </si>
-  <si>
-    <t>No se publicó</t>
-  </si>
-  <si>
-    <t>documentos gestión del conocimiento -16_51_21.zip</t>
-  </si>
-  <si>
-    <t>853d09e9-df1f-4a9b-a21c-5d2499e3ffa4</t>
-  </si>
-  <si>
-    <t>Centro de Documentación y Memoria</t>
-  </si>
-  <si>
-    <t>OBJ. 22_POL_18_CENTRO_DOCUMENTACION_OACP_2022_JAIME ALEXANDER VILL-20_50_18.pdf</t>
-  </si>
-  <si>
-    <t>1da7de14-57d3-4f35-8b1e-f66c3d95aeeb</t>
-  </si>
-  <si>
-    <t>Escuela Interna de Formación de Formadores</t>
-  </si>
-  <si>
-    <t>EIFF 2022-17_13_55.pdf</t>
-  </si>
-  <si>
-    <t>Pagina web: Transparencia</t>
-  </si>
-  <si>
-    <t>1. INFORME DE GESTIÓN 2021-11_38_10.pdf</t>
-  </si>
-  <si>
-    <t>69a66e34-418d-4f80-85cd-f9510d2d524e</t>
-  </si>
-  <si>
-    <t>2. Soporte informe sostenibilidad y gestion-11_38_21.pdf</t>
-  </si>
-  <si>
-    <t>Intranet IDIPRON</t>
-  </si>
-  <si>
-    <t>604384620-Lecciones-Aprendidas-14_41_8.pdf</t>
-  </si>
-  <si>
-    <t>99890a0b-70de-4846-8562-08860ab50475</t>
-  </si>
-  <si>
-    <t>Repositorio Institucional</t>
-  </si>
-  <si>
-    <t>InformesBuenasPractica_compressed-8_46_34.pdf</t>
-  </si>
-  <si>
-    <t>ccb07bc2-67b9-4c6b-9d1e-8d84493cde19</t>
-  </si>
-  <si>
-    <t>Socializo al interior por correo institucional</t>
-  </si>
-  <si>
-    <t>Buenas practicas SGSST-13_52_38.pdf</t>
-  </si>
-  <si>
-    <t>1b09ae65-d423-41ce-bb04-76539e953cd1</t>
-  </si>
-  <si>
-    <t>Aplicativo Isolución</t>
-  </si>
-  <si>
-    <t>Procedimiento y formatos 37.1 y 38.1-16_45_28.pdf</t>
-  </si>
-  <si>
-    <t>f44cbd7c-171d-4b35-9133-8901fb67c3a0</t>
-  </si>
-  <si>
-    <t>Intranet</t>
-  </si>
-  <si>
-    <t>38 BUENAS PRACTICAS-18_37_16.pdf</t>
-  </si>
-  <si>
-    <t>2a1228b4-8ee2-424d-ac64-2c28d249f7f7</t>
-  </si>
-  <si>
-    <t>En la Pagina web de la entidad micrositio SIG.</t>
-  </si>
-  <si>
-    <t>BUENAS PRACTICAS Y LECCIONES APRENDIDAS-15_32_59.zip</t>
-  </si>
-  <si>
-    <t>f40536a4-9859-440c-8dbe-6de07ea0c57f</t>
-  </si>
-  <si>
-    <t>En la página web</t>
-  </si>
-  <si>
-    <t>Rad Concejo de Bogota Inf geston 2022 Rad. 000076 02022023-18_31_17.pdf</t>
-  </si>
-  <si>
-    <t>e6e31363-d0e1-4ece-bc04-b52a0896a5c3</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Anexo en blanco Índice de Innovación.-12_48_19.docx</t>
-  </si>
-  <si>
-    <t>dae08630-74c8-44c3-906c-d4b7fdbd4bfa</t>
-  </si>
-  <si>
-    <t>Se identificaron pero no se sistematizadas</t>
-  </si>
-  <si>
-    <t>LA Y BP-14_36_21.pdf</t>
-  </si>
-  <si>
-    <t>5026a6c5-bc28-4abe-ba16-84848fd70f3f</t>
-  </si>
-  <si>
-    <t>Se desarrolló pero no se publicó</t>
-  </si>
-  <si>
-    <t>P38_1 Guía documención buenas prácticas-15_6_37.pdf</t>
-  </si>
-  <si>
-    <t>55d0f698-9b69-4a7f-8a64-33a3e2236f56</t>
-  </si>
-  <si>
-    <t>P38_2 Buenas practicas de gestión interna-15_6_52.pdf</t>
-  </si>
-  <si>
-    <t>módulo de Almera.</t>
-  </si>
-  <si>
-    <t>Plantilla-19_2_3.docx</t>
-  </si>
-  <si>
-    <t>924f505e-b985-4139-a03f-2075e23075d0</t>
-  </si>
-  <si>
-    <t>Drive de la entidad. Uso interno.</t>
-  </si>
-  <si>
-    <t>PE02-G02-F08 consentimiento transfer con-7_20_6.pdf</t>
-  </si>
-  <si>
-    <t>e739d624-2335-4c9f-87af-db9ba828e296</t>
-  </si>
-  <si>
-    <t>Web institucional y correo electrónico</t>
-  </si>
-  <si>
-    <t>GE-PO01-FT01 Documentación De Buenas Practicas (2)-18_19_27.docx</t>
-  </si>
-  <si>
-    <t>e4cd18f0-b93e-43e3-9e70-b67b5b86101d</t>
-  </si>
-  <si>
-    <t>GE-PO01-FT02 Documentación De Lecciones Aprendidas (1) (3)-18_20_51.docx</t>
-  </si>
-  <si>
-    <t>Live Youtube y Facebook institucional</t>
-  </si>
-  <si>
-    <t>Pantallazos. presentación Youtube- Buenas practicas-14_57_3.pdf</t>
-  </si>
-  <si>
-    <t>Live Youtube y facebook institucional</t>
-  </si>
-  <si>
-    <t>Buenas practicas Estaciones- Feria del Conocimiento y la Innovacion-14_57_52.pdf</t>
-  </si>
-  <si>
-    <t>Página WEB . Drive</t>
-  </si>
-  <si>
-    <t>2022-08-24_Formato_documentacion_buenas_practicas_PIC sin recursos-15_54_57.pdf</t>
-  </si>
-  <si>
-    <t>e32446a6-18d0-481c-b2b4-3e32a9356113</t>
-  </si>
-  <si>
-    <t>banco_buenas_practicas_sdg_-_primer_semestre_2022-17_59_57.xlsx</t>
-  </si>
-  <si>
-    <t>b00a799a-4c7e-449c-9eb8-8f3d4123e788</t>
-  </si>
-  <si>
-    <t>Mejores practicas-18_42_35.pdf</t>
-  </si>
-  <si>
-    <t>26cbed04-cff6-45d8-8c3b-98ac8e94a5de</t>
-  </si>
-  <si>
-    <t>En la intranet de la entidad</t>
-  </si>
-  <si>
-    <t>Evidencias Fondo de Prestaciones Económicas Cesantías y Pensiones-16_29_14.pdf</t>
-  </si>
-  <si>
-    <t>965af449-187b-477e-b052-6c8466485c06</t>
-  </si>
-  <si>
-    <t>En SVE sistema de gestión de calidad</t>
-  </si>
-  <si>
-    <t>Evidencias Fondo de Prestaciones Económicas Cesantías y Pensiones-16_29_57.pdf</t>
-  </si>
-  <si>
-    <t>Intranet SDG</t>
-  </si>
-  <si>
-    <t>AGORA KENNEDY banco_buenas_practicas_sdg_-_primer_semestre_2022-21_51_28.pdf</t>
-  </si>
-  <si>
-    <t>d65b7bcc-d53a-4543-a294-6f52e146281d</t>
-  </si>
-  <si>
-    <t>http://gaia.gobiernobogota.gov.co</t>
-  </si>
-  <si>
-    <t>C:\fakepath\HOJA DE SOPORTE INNOVACIÓN.docx</t>
-  </si>
-  <si>
-    <t>16790b2a-7734-4ee5-8914-a100e6c136cb</t>
-  </si>
-  <si>
-    <t>ARCHIVO CON EL LINK-3-22_22_19.docx</t>
-  </si>
-  <si>
-    <t>1b8fefa0-afe4-4c6e-9a13-e15c39b76a4e</t>
-  </si>
-  <si>
-    <t>gcn-m005_v3-11_16_45.pdf</t>
-  </si>
-  <si>
-    <t>1dcd0622-9833-4ca8-8b09-ea7617ead3c3</t>
-  </si>
-  <si>
-    <t>gcn-p005_v3-11_17_11.pdf</t>
-  </si>
-  <si>
-    <t>Gestión del conocimiento y La Innovación | Intranet-11_17_22.pdf</t>
-  </si>
-  <si>
-    <t>Buenas Prácticas y Lecciones Aprendida</t>
-  </si>
-  <si>
-    <t>banco_buenas_practicas_sdg_-_primer_semestre_2022-16_13_46.xlsx</t>
-  </si>
-  <si>
-    <t>29b462d1-a002-4c07-a854-1c82fc10829f</t>
-  </si>
-  <si>
-    <t>Gestor documental de la entidad - Orfeo</t>
-  </si>
-  <si>
-    <t>Anexo-E-transferencia-de-aprendizaje DLB.docx-19_4_42.pdf</t>
-  </si>
-  <si>
-    <t>df3c6d45-a610-452f-9f01-3efae7005f0f</t>
-  </si>
-  <si>
-    <t>Pagina Web - Formatos</t>
-  </si>
-  <si>
-    <t>NA-13_51_40.pdf</t>
-  </si>
-  <si>
-    <t>13c871d7-fe73-4392-8291-30cc78ffa857</t>
-  </si>
-  <si>
-    <t>Página web del IDPAC</t>
-  </si>
-  <si>
-    <t>C:\fakepath\PAPER LabLocal-15_42_8.pdf.txt</t>
-  </si>
-  <si>
-    <t>8f2013cb-a19d-4b94-82e1-dde826049c56</t>
-  </si>
-  <si>
-    <t>C:\fakepath\Paper Corredor Verde Carrera Séptima-15_42_17.pdf.txt</t>
+    <t>Índice de Innovación Pública 2024</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2025</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2026</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2027</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2028</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2029</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2030</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2031</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2032</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2033</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2034</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2035</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2036</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2037</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2038</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2039</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2040</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2041</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2042</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2043</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2044</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2045</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2046</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2047</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2048</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2049</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2050</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2051</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2052</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2053</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2054</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2055</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2056</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2057</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2058</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2059</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2060</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2061</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2062</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2063</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2064</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2065</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2066</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2067</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2068</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2069</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2070</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2071</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2072</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2073</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2074</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2075</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2076</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2077</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2078</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2079</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2080</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2081</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2082</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2083</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2084</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2085</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2086</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2087</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2088</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2089</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2090</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2091</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2092</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2093</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2094</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2095</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2096</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2097</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2098</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2099</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2100</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2101</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2102</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2103</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2104</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2105</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2106</t>
   </si>
 </sst>
 </file>
@@ -684,9 +933,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +947,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -740,7 +995,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,7 +1301,7 @@
   <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1121,13 +1376,13 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2">
         <v>45013.731631944444</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1135,16 +1390,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1153,13 +1408,13 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P3">
         <v>0.2</v>
@@ -1167,16 +1422,16 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1185,13 +1440,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4">
         <v>0.4</v>
@@ -1199,16 +1454,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1217,13 +1472,13 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P5">
         <v>0.3</v>
@@ -1231,16 +1486,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1249,13 +1504,13 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6">
         <v>0.4</v>
@@ -1263,16 +1518,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1281,13 +1536,13 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7">
         <v>0.3</v>
@@ -1295,16 +1550,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1313,13 +1568,13 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" s="2">
         <v>45026.782777777778</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1327,16 +1582,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1345,13 +1600,13 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2">
         <v>45026.782777777778</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1359,16 +1614,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -1377,13 +1632,13 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="2">
         <v>45026.782777777778</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1391,16 +1646,16 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1409,13 +1664,13 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2">
         <v>45027.659305555557</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1423,16 +1678,16 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -1441,13 +1696,13 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1455,16 +1710,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -1473,13 +1728,13 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1487,16 +1742,16 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -1505,13 +1760,13 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1519,16 +1774,16 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1537,13 +1792,13 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1551,16 +1806,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1569,13 +1824,13 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="M16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1583,16 +1838,16 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -1601,13 +1856,13 @@
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1615,16 +1870,16 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="G18">
         <v>13</v>
@@ -1633,13 +1888,13 @@
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1647,16 +1902,16 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -1665,13 +1920,13 @@
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1679,16 +1934,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -1697,13 +1952,13 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="M20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1711,16 +1966,16 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -1729,13 +1984,13 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J21" s="2">
         <v>45029.863969907397</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1743,16 +1998,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -1761,13 +2016,13 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="2">
         <v>45029.863969907397</v>
       </c>
       <c r="M22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1775,16 +2030,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -1793,13 +2048,13 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1807,16 +2062,16 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="G24">
         <v>16</v>
@@ -1825,13 +2080,13 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J24" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="M24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1839,16 +2094,16 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -1857,13 +2112,13 @@
         <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J25" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="M25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1871,16 +2126,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
         <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="G26">
         <v>18</v>
@@ -1889,13 +2144,13 @@
         <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J26" s="2">
         <v>45030.793912037043</v>
       </c>
       <c r="M26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1903,16 +2158,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -1921,13 +2176,13 @@
         <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J27" s="2">
         <v>45030.958981481483</v>
       </c>
       <c r="M27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -1935,16 +2190,16 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
       <c r="G28">
         <v>21</v>
@@ -1953,13 +2208,13 @@
         <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="M28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -1967,16 +2222,16 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="G29">
         <v>22</v>
@@ -1985,13 +2240,13 @@
         <v>37</v>
       </c>
       <c r="I29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J29" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="M29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -1999,16 +2254,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
         <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2017,13 +2272,13 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="M30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2031,16 +2286,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -2049,13 +2304,13 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="M31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2063,16 +2318,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
         <v>91</v>
-      </c>
-      <c r="B32" t="s">
-        <v>92</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -2081,13 +2336,13 @@
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J32" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="M32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2095,16 +2350,16 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
         <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -2113,13 +2368,13 @@
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="M33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2127,16 +2382,16 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="G34">
         <v>23</v>
@@ -2145,13 +2400,13 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="M34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2159,16 +2414,16 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
         <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="G35">
         <v>23</v>
@@ -2177,13 +2432,13 @@
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J35" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2191,16 +2446,16 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="G36">
         <v>23</v>
@@ -2209,13 +2464,13 @@
         <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J36" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="M36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2223,16 +2478,16 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
         <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="G37">
         <v>24</v>
@@ -2241,13 +2496,13 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J37" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="M37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2255,16 +2510,16 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
         <v>102</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="G38">
         <v>24</v>
@@ -2273,13 +2528,13 @@
         <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J38" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="M38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2287,16 +2542,16 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
         <v>104</v>
-      </c>
-      <c r="B39" t="s">
-        <v>105</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="G39">
         <v>24</v>
@@ -2305,13 +2560,13 @@
         <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J39" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="M39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2319,16 +2574,16 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
         <v>106</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="G40">
         <v>26</v>
@@ -2337,13 +2592,13 @@
         <v>55</v>
       </c>
       <c r="I40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J40" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2351,16 +2606,16 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
         <v>109</v>
-      </c>
-      <c r="B41" t="s">
-        <v>110</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="G41">
         <v>26</v>
@@ -2369,13 +2624,13 @@
         <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J41" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="M41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2383,16 +2638,16 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
         <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="G42">
         <v>27</v>
@@ -2401,13 +2656,13 @@
         <v>56</v>
       </c>
       <c r="I42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J42" s="2">
         <v>45034.645821759259</v>
       </c>
       <c r="M42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -2415,16 +2670,16 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="G43">
         <v>27</v>
@@ -2433,13 +2688,13 @@
         <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J43" s="2">
         <v>45034.645821759259</v>
       </c>
       <c r="M43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -2447,16 +2702,16 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="G44">
         <v>27</v>
@@ -2465,13 +2720,13 @@
         <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J44" s="2">
         <v>45034.645821759259</v>
       </c>
       <c r="M44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -2479,16 +2734,16 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
         <v>116</v>
-      </c>
-      <c r="B45" t="s">
-        <v>117</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="G45">
         <v>28</v>
@@ -2497,13 +2752,13 @@
         <v>57</v>
       </c>
       <c r="I45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J45" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2511,16 +2766,16 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
         <v>119</v>
-      </c>
-      <c r="B46" t="s">
-        <v>120</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="G46">
         <v>29</v>
@@ -2529,13 +2784,13 @@
         <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J46" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="M46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2543,16 +2798,16 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
         <v>122</v>
-      </c>
-      <c r="B47" t="s">
-        <v>123</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -2561,13 +2816,13 @@
         <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J47" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="M47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2575,16 +2830,16 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
         <v>125</v>
-      </c>
-      <c r="B48" t="s">
-        <v>126</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="G48">
         <v>31</v>
@@ -2593,13 +2848,13 @@
         <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J48" s="2">
         <v>45034.923692129632</v>
       </c>
       <c r="M48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -2607,16 +2862,16 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
         <v>128</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="G49">
         <v>32</v>
@@ -2625,13 +2880,13 @@
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49" s="2">
         <v>45034.945092592592</v>
       </c>
       <c r="M49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -2639,16 +2894,16 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
         <v>131</v>
-      </c>
-      <c r="B50" t="s">
-        <v>132</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="G50">
         <v>32</v>
@@ -2657,13 +2912,13 @@
         <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J50" s="2">
         <v>45034.945092592592</v>
       </c>
       <c r="M50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -2671,16 +2926,16 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
         <v>133</v>
-      </c>
-      <c r="B51" t="s">
-        <v>134</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="G51">
         <v>33</v>
@@ -2689,13 +2944,13 @@
         <v>63</v>
       </c>
       <c r="I51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J51" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="M51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -2703,16 +2958,16 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="G52">
         <v>33</v>
@@ -2721,13 +2976,13 @@
         <v>63</v>
       </c>
       <c r="I52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J52" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="M52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -2735,16 +2990,16 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
         <v>137</v>
-      </c>
-      <c r="B53" t="s">
-        <v>138</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="G53">
         <v>34</v>
@@ -2753,13 +3008,13 @@
         <v>64</v>
       </c>
       <c r="I53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J53" s="2">
         <v>45035.836608796293</v>
       </c>
       <c r="M53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -2767,16 +3022,16 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" t="s">
         <v>140</v>
-      </c>
-      <c r="B54" t="s">
-        <v>141</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="G54">
         <v>35</v>
@@ -2785,13 +3040,13 @@
         <v>75</v>
       </c>
       <c r="I54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J54" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -2799,16 +3054,16 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s">
         <v>143</v>
-      </c>
-      <c r="B55" t="s">
-        <v>144</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="G55">
         <v>37</v>
@@ -2817,13 +3072,13 @@
         <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J55" s="2">
         <v>45041.153495370367</v>
       </c>
       <c r="M55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -2831,16 +3086,16 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
         <v>146</v>
-      </c>
-      <c r="B56" t="s">
-        <v>147</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="G56">
         <v>38</v>
@@ -2849,13 +3104,13 @@
         <v>80</v>
       </c>
       <c r="I56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J56" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="M56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -2863,16 +3118,16 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" t="s">
         <v>149</v>
-      </c>
-      <c r="B57" t="s">
-        <v>150</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="G57">
         <v>39</v>
@@ -2881,13 +3136,13 @@
         <v>81</v>
       </c>
       <c r="I57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J57" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="M57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -2895,16 +3150,16 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
         <v>152</v>
-      </c>
-      <c r="B58" t="s">
-        <v>153</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="G58">
         <v>41</v>
@@ -2913,13 +3168,13 @@
         <v>83</v>
       </c>
       <c r="I58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J58" s="2">
         <v>45042.864039351851</v>
       </c>
       <c r="M58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -2927,16 +3182,16 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s">
         <v>155</v>
-      </c>
-      <c r="B59" t="s">
-        <v>156</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="G59">
         <v>42</v>
@@ -2945,13 +3200,13 @@
         <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J59" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="M59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -2959,16 +3214,16 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" t="s">
         <v>158</v>
-      </c>
-      <c r="B60" t="s">
-        <v>159</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="G60">
         <v>44</v>
@@ -2977,13 +3232,13 @@
         <v>87</v>
       </c>
       <c r="I60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J60" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="M60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -2991,16 +3246,16 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" t="s">
         <v>161</v>
-      </c>
-      <c r="B61" t="s">
-        <v>162</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -3009,13 +3264,13 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J61" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="M61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3023,16 +3278,16 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" t="s">
         <v>164</v>
-      </c>
-      <c r="B62" t="s">
-        <v>165</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="G62">
         <v>46</v>
@@ -3041,13 +3296,13 @@
         <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J62" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3055,16 +3310,16 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -3073,13 +3328,13 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J63" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3087,16 +3342,16 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" t="s">
         <v>168</v>
-      </c>
-      <c r="B64" t="s">
-        <v>169</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="G64">
         <v>48</v>
@@ -3105,13 +3360,13 @@
         <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J64" s="2">
         <v>45044.001712962963</v>
       </c>
       <c r="M64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3119,16 +3374,16 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" t="s">
         <v>171</v>
-      </c>
-      <c r="B65" t="s">
-        <v>172</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="G65">
         <v>49</v>
@@ -3137,13 +3392,13 @@
         <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J65" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="M65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3151,16 +3406,16 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" t="s">
         <v>174</v>
-      </c>
-      <c r="B66" t="s">
-        <v>175</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -3169,13 +3424,13 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J66" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="M66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3183,16 +3438,16 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -3201,13 +3456,13 @@
         <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J67" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="M67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3215,16 +3470,16 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
         <v>178</v>
-      </c>
-      <c r="B68" t="s">
-        <v>179</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -3233,13 +3488,13 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J68" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="M68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -3247,16 +3502,16 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" t="s">
         <v>180</v>
-      </c>
-      <c r="B69" t="s">
-        <v>181</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="G69">
         <v>50</v>
@@ -3265,13 +3520,13 @@
         <v>94</v>
       </c>
       <c r="I69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J69" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="M69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -3279,16 +3534,16 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" t="s">
         <v>182</v>
-      </c>
-      <c r="B70" t="s">
-        <v>183</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="G70">
         <v>51</v>
@@ -3297,13 +3552,13 @@
         <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J70" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="M70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -3311,16 +3566,16 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="G71">
         <v>54</v>
@@ -3329,13 +3584,13 @@
         <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J71" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="M71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -3343,16 +3598,16 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="G72">
         <v>56</v>
@@ -3361,13 +3616,13 @@
         <v>101</v>
       </c>
       <c r="I72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J72" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -3375,16 +3630,16 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73" t="s">
         <v>189</v>
-      </c>
-      <c r="B73" t="s">
-        <v>190</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>289</v>
       </c>
       <c r="G73">
         <v>57</v>
@@ -3393,13 +3648,13 @@
         <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J73" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="M73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -3407,16 +3662,16 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" t="s">
         <v>192</v>
-      </c>
-      <c r="B74" t="s">
-        <v>193</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="G74">
         <v>57</v>
@@ -3425,13 +3680,13 @@
         <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J74" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="M74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -3439,16 +3694,16 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" t="s">
         <v>194</v>
-      </c>
-      <c r="B75" t="s">
-        <v>195</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="G75">
         <v>59</v>
@@ -3457,13 +3712,13 @@
         <v>104</v>
       </c>
       <c r="I75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J75" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="M75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -3471,16 +3726,16 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" t="s">
         <v>197</v>
-      </c>
-      <c r="B76" t="s">
-        <v>198</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="G76">
         <v>60</v>
@@ -3489,13 +3744,13 @@
         <v>105</v>
       </c>
       <c r="I76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J76" s="2">
         <v>45045.136759259258</v>
       </c>
       <c r="M76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -3503,16 +3758,16 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="G77">
         <v>61</v>
@@ -3521,13 +3776,13 @@
         <v>106</v>
       </c>
       <c r="I77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J77" s="2">
         <v>45045.147962962961</v>
       </c>
       <c r="M77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -3535,16 +3790,16 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="G78">
         <v>64</v>
@@ -3553,13 +3808,13 @@
         <v>111</v>
       </c>
       <c r="I78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J78" s="2">
         <v>45045.679583333331</v>
       </c>
       <c r="M78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -3567,16 +3822,16 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="G79">
         <v>64</v>
@@ -3585,13 +3840,13 @@
         <v>111</v>
       </c>
       <c r="I79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J79" s="2">
         <v>45045.679583333331</v>
       </c>
       <c r="M79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -3599,16 +3854,16 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="G80">
         <v>64</v>
@@ -3617,13 +3872,13 @@
         <v>111</v>
       </c>
       <c r="I80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J80" s="2">
         <v>45045.679583333331</v>
       </c>
       <c r="M80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -3631,16 +3886,16 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" t="s">
         <v>206</v>
-      </c>
-      <c r="B81" t="s">
-        <v>207</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="G81">
         <v>65</v>
@@ -3649,13 +3904,13 @@
         <v>113</v>
       </c>
       <c r="I81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J81" s="2">
         <v>45046.885046296287</v>
       </c>
       <c r="M81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -3663,16 +3918,16 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" t="s">
         <v>209</v>
-      </c>
-      <c r="B82" t="s">
-        <v>210</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="G82">
         <v>67</v>
@@ -3681,13 +3936,13 @@
         <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J82" s="2">
         <v>45048.691724537042</v>
       </c>
       <c r="M82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -3695,16 +3950,16 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>211</v>
+      </c>
+      <c r="B83" t="s">
         <v>212</v>
-      </c>
-      <c r="B83" t="s">
-        <v>213</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="G83">
         <v>68</v>
@@ -3713,13 +3968,13 @@
         <v>117</v>
       </c>
       <c r="I83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J83" s="2">
         <v>45048.788657407407</v>
       </c>
       <c r="M83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -3727,16 +3982,16 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B84" t="s">
         <v>215</v>
-      </c>
-      <c r="B84" t="s">
-        <v>216</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="G84">
         <v>70</v>
@@ -3745,13 +4000,13 @@
         <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J84" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="M84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -3759,16 +4014,16 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="G85">
         <v>70</v>
@@ -3777,19 +4032,20 @@
         <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J85" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="M85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/files/separadas/repeat_p38.xlsx
+++ b/files/separadas/repeat_p38.xlsx
@@ -852,7 +852,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +900,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10">
@@ -948,7 +948,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
@@ -996,7 +996,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
@@ -2628,7 +2628,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="46">
@@ -3876,7 +3876,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
@@ -4068,7 +4068,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76">
@@ -4164,7 +4164,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="78">
@@ -4452,7 +4452,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="84">
